--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1193432.245270321</v>
+        <v>1211049.6951344</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673259</v>
+        <v>4171427.157673258</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9652107.808954863</v>
+        <v>9652107.808954865</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>88.09081815943092</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
         <v>187.5255871663201</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>172.0188164403319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>10.21499926102444</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>30.59766133656588</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.00402729331236</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040618</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.10430989402848</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>207.8515107718717</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>226.4341290878649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>99.76906429273785</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>100.165261679544</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>125.0721477169168</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.84443721704979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>28.31241236142997</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>109.2593603692554</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447943</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693937</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>177.7152040405518</v>
+        <v>177.7152040405601</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>103.2692284942248</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099232987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.9006905201112</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>126.5388824951713</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.8517409876655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>17.67998505375354</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>109.3296738389823</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414546</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249717</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>15.07437110675936</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>242.8528437613057</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>153.1438055037666</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>43.29477100633353</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744766</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>29.76460990121763</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>235.937584449455</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>219.9913805646967</v>
       </c>
       <c r="V22" t="n">
-        <v>164.2540732785638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>22.79319361026645</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680981</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>100.3228842670926</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>76.91168562725612</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>22.79319361026645</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>4.816914552502864</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>54.20884842038573</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>165.6040273698195</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>325.9817935320053</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>159.4876155415857</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>52.07852635745854</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>176.4971474005439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>14.31259208839433</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>21.45647329682053</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>80.00124118081871</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>77.83107808278578</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>345.4060193261105</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>2.00342570503469</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>115.2302895839012</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>192.3581416134198</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>92.42092342598964</v>
+        <v>261.3518461594705</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0705870867482</v>
+        <v>28.18795678412414</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>62.05247874061831</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>32.97950884736335</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>157.550069492509</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>214.2820487825068</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.87859906451666</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>38.87667447859932</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.28126849936669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>158.0933671656962</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005846</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
@@ -4357,25 +4357,25 @@
         <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433441</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="T2" t="n">
-        <v>338.1060369005846</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="U2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="V2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="X2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005846</v>
+        <v>482.8222414097411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452124</v>
+        <v>719.1956200424866</v>
       </c>
       <c r="C3" t="n">
-        <v>581.8870116452124</v>
+        <v>544.7425907613596</v>
       </c>
       <c r="D3" t="n">
-        <v>432.9526019839611</v>
+        <v>395.8081811001083</v>
       </c>
       <c r="E3" t="n">
-        <v>273.7151469785056</v>
+        <v>236.5707260946528</v>
       </c>
       <c r="F3" t="n">
-        <v>127.1805890053906</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="G3" t="n">
-        <v>127.1805890053906</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="H3" t="n">
-        <v>25.32022804504747</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>25.32022804504747</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330561</v>
@@ -4451,10 +4451,10 @@
         <v>750.1023486652804</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652804</v>
+        <v>719.1956200424866</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652804</v>
+        <v>719.1956200424866</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829011</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
         <v>29.24882464404144</v>
@@ -4506,34 +4506,34 @@
         <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.252822503043</v>
+        <v>789.5335540906474</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.290305562631</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="D5" t="n">
-        <v>1159.290305562631</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="E5" t="n">
-        <v>1159.290305562631</v>
+        <v>62.30533854348525</v>
       </c>
       <c r="F5" t="n">
-        <v>748.3044007730239</v>
+        <v>55.35983779428177</v>
       </c>
       <c r="G5" t="n">
-        <v>332.2733554764311</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809311</v>
@@ -4600,19 +4600,19 @@
         <v>2168.459826904656</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567165</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.852662567165</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.852662567165</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.852662567165</v>
+        <v>1566.272726130581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.852662567165</v>
+        <v>1176.133394154769</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327.3467159978613</v>
+        <v>846.0707711116521</v>
       </c>
       <c r="C6" t="n">
-        <v>226.5698833789342</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D6" t="n">
-        <v>226.5698833789342</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E6" t="n">
-        <v>226.5698833789342</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F6" t="n">
-        <v>80.03532540581918</v>
+        <v>216.9113191907032</v>
       </c>
       <c r="G6" t="n">
         <v>80.03532540581918</v>
@@ -4670,28 +4670,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474384</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.56331694836</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U6" t="n">
-        <v>1400.56331694836</v>
+        <v>1665.050015333949</v>
       </c>
       <c r="V6" t="n">
-        <v>1165.411208716618</v>
+        <v>1429.897907102207</v>
       </c>
       <c r="W6" t="n">
-        <v>911.1738519884161</v>
+        <v>1429.897907102207</v>
       </c>
       <c r="X6" t="n">
-        <v>703.3223517828833</v>
+        <v>1222.046406896674</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.5620530179294</v>
+        <v>1014.28610813172</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.6408822103605</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="C7" t="n">
-        <v>169.7046992824536</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809311</v>
+        <v>372.3762534582071</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809311</v>
+        <v>225.4863059602967</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809311</v>
+        <v>57.35347655531513</v>
       </c>
       <c r="H7" t="n">
         <v>43.36919653809311</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1384.893212101071</v>
+        <v>1260.722568353663</v>
       </c>
       <c r="C8" t="n">
-        <v>1384.893212101071</v>
+        <v>1260.722568353663</v>
       </c>
       <c r="D8" t="n">
-        <v>1026.627513494321</v>
+        <v>1260.722568353663</v>
       </c>
       <c r="E8" t="n">
-        <v>640.8392608960767</v>
+        <v>874.9343157554189</v>
       </c>
       <c r="F8" t="n">
-        <v>229.8533561064691</v>
+        <v>463.9484109658113</v>
       </c>
       <c r="G8" t="n">
-        <v>119.490365834494</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="H8" t="n">
-        <v>119.490365834494</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="J8" t="n">
-        <v>173.600695537124</v>
+        <v>173.6006955371254</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844068</v>
+        <v>412.4113998844095</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721376</v>
+        <v>745.5789575721415</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459632</v>
+        <v>1147.961497459638</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.468815899333</v>
+        <v>1561.46881589934</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767442</v>
+        <v>1938.596789767452</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440877</v>
+        <v>2225.965789440887</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823316</v>
+        <v>2393.595193823327</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185334</v>
+        <v>2405.694710185346</v>
       </c>
       <c r="S8" t="n">
-        <v>2278.038448903118</v>
+        <v>2405.694710185346</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.724754714756</v>
+        <v>2405.694710185346</v>
       </c>
       <c r="U8" t="n">
-        <v>2068.724754714756</v>
+        <v>2405.694710185346</v>
       </c>
       <c r="V8" t="n">
-        <v>1737.661867371186</v>
+        <v>2405.694710185346</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.893212101071</v>
+        <v>2052.926054915231</v>
       </c>
       <c r="X8" t="n">
-        <v>1384.893212101071</v>
+        <v>1679.460296654152</v>
       </c>
       <c r="Y8" t="n">
-        <v>1384.893212101071</v>
+        <v>1289.32096467834</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>677.2733461246555</v>
+        <v>677.2733461246557</v>
       </c>
       <c r="C9" t="n">
-        <v>502.8203168435285</v>
+        <v>502.8203168435287</v>
       </c>
       <c r="D9" t="n">
-        <v>353.8859071822772</v>
+        <v>353.8859071822774</v>
       </c>
       <c r="E9" t="n">
-        <v>194.6484521768217</v>
+        <v>194.6484521768219</v>
       </c>
       <c r="F9" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="G9" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="H9" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502461</v>
+        <v>104.0351264502469</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873308</v>
+        <v>277.7682440873325</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039153</v>
+        <v>557.6964019039183</v>
       </c>
       <c r="M9" t="n">
-        <v>903.71622688992</v>
+        <v>903.7162268899243</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944928</v>
+        <v>1273.302811944934</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471358</v>
+        <v>1589.182537471365</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411568</v>
+        <v>1823.370799411576</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186823</v>
+        <v>1930.000254186832</v>
       </c>
       <c r="R9" t="n">
-        <v>1930.000254186823</v>
+        <v>1930.000254186832</v>
       </c>
       <c r="S9" t="n">
-        <v>1930.000254186823</v>
+        <v>1930.000254186832</v>
       </c>
       <c r="T9" t="n">
-        <v>1930.000254186823</v>
+        <v>1930.000254186832</v>
       </c>
       <c r="U9" t="n">
         <v>1750.489947075155</v>
@@ -4922,13 +4922,13 @@
         <v>1515.337838843412</v>
       </c>
       <c r="W9" t="n">
-        <v>1261.10048211521</v>
+        <v>1261.100482115211</v>
       </c>
       <c r="X9" t="n">
-        <v>1053.248981909677</v>
+        <v>1053.248981909678</v>
       </c>
       <c r="Y9" t="n">
-        <v>845.4886831447236</v>
+        <v>845.4886831447238</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="C10" t="n">
-        <v>493.0335746963459</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="D10" t="n">
-        <v>342.9169352840102</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="E10" t="n">
-        <v>195.003841701617</v>
+        <v>207.1089033100313</v>
       </c>
       <c r="F10" t="n">
-        <v>48.11389420370668</v>
+        <v>60.21895581212092</v>
       </c>
       <c r="G10" t="n">
-        <v>48.11389420370668</v>
+        <v>60.21895581212092</v>
       </c>
       <c r="H10" t="n">
-        <v>48.11389420370668</v>
+        <v>60.21895581212092</v>
       </c>
       <c r="I10" t="n">
-        <v>48.11389420370668</v>
+        <v>60.21895581212092</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370668</v>
+        <v>48.11389420370691</v>
       </c>
       <c r="K10" t="n">
-        <v>107.499855313908</v>
+        <v>107.4998553139088</v>
       </c>
       <c r="L10" t="n">
-        <v>213.399237366371</v>
+        <v>213.3992373663725</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658632</v>
+        <v>328.3135705658654</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739833</v>
+        <v>448.3530236739862</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502067</v>
+        <v>538.9157986502104</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107144</v>
+        <v>597.3459267107186</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.3459267107144</v>
+        <v>597.3459267107186</v>
       </c>
       <c r="R10" t="n">
-        <v>597.3459267107144</v>
+        <v>597.3459267107186</v>
       </c>
       <c r="S10" t="n">
-        <v>597.3459267107144</v>
+        <v>597.3459267107186</v>
       </c>
       <c r="T10" t="n">
-        <v>597.3459267107144</v>
+        <v>597.3459267107186</v>
       </c>
       <c r="U10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="V10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="W10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="X10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.3459267107144</v>
+        <v>355.0219968924244</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.584566587187</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883009</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.075344883009</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.075344883009</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5229,22 +5229,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1583.077587705313</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1224.811889098562</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>839.0236365003182</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,7 +5293,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.881139157497</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.881139157497</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2773.818251813927</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.049596543812</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>2047.583838282732</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y14" t="n">
-        <v>2047.583838282732</v>
+        <v>1952.040104645725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218345</v>
+        <v>81.73875391375856</v>
       </c>
       <c r="E16" t="n">
         <v>66.51211643218345</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581906</v>
@@ -5454,7 +5454,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088493</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1930.094988518961</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C17" t="n">
-        <v>1561.13247157855</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1202.866772971799</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839474</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839474</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5530,10 +5530,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.58875505237</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609172</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W17" t="n">
-        <v>3080.299918819975</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X17" t="n">
-        <v>2706.834160558895</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y17" t="n">
-        <v>2316.694828583083</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M18" t="n">
         <v>1212.42807043813</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218345</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218345</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218345</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218345</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218345</v>
@@ -5676,13 +5676,13 @@
         <v>111.6347488791191</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581906</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935979</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S19" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.52793265802</v>
       </c>
       <c r="U19" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V19" t="n">
-        <v>986.3598813409312</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>1188.435514885646</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>967.6429357421158</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032.061124352532</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="C20" t="n">
-        <v>663.0986074121208</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>304.8329088053703</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218345</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218345</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218345</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267231</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653546</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392466</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416654</v>
+        <v>2350.873125563626</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218345</v>
@@ -5940,22 +5940,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783663</v>
+        <v>1705.081032366577</v>
       </c>
       <c r="V22" t="n">
-        <v>1250.51186045178</v>
+        <v>1450.39654416069</v>
       </c>
       <c r="W22" t="n">
-        <v>1250.51186045178</v>
+        <v>1160.97937412373</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>932.9898232257124</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>712.1972440821822</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.34156756514</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624728</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1343.379050624728</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>957.5907980264838</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>546.6048932368763</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>131.5324430818727</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
@@ -6010,31 +6010,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866153</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605073</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.941407629261</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031481</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>758.9852304414019</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C25" t="n">
-        <v>758.9852304414019</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>608.8685910290661</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>460.955497446673</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>314.0655499487626</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V25" t="n">
-        <v>1450.843444452132</v>
+        <v>1436.153477144183</v>
       </c>
       <c r="W25" t="n">
-        <v>1161.426274415172</v>
+        <v>1146.736307107222</v>
       </c>
       <c r="X25" t="n">
-        <v>1161.426274415172</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y25" t="n">
-        <v>940.6336952716416</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1712.34156756514</v>
+        <v>1892.963660013484</v>
       </c>
       <c r="C26" t="n">
-        <v>1343.379050624728</v>
+        <v>1524.001143073072</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1165.735444466321</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>779.9471918680772</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>368.9612870784696</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218345</v>
@@ -6238,13 +6238,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.58875505237</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W26" t="n">
-        <v>2862.546497866153</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.080739605073</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y26" t="n">
-        <v>2098.941407629261</v>
+        <v>1892.963660013484</v>
       </c>
     </row>
     <row r="27">
@@ -6323,7 +6323,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>511.7013404397348</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>511.7013404397348</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>511.7013404397348</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>364.8113929418245</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218345</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T28" t="n">
-        <v>1478.501411349798</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U28" t="n">
-        <v>1478.501411349798</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.501411349798</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>680.6375233676417</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.807527238424</v>
+        <v>2049.196691315587</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.845010298012</v>
+        <v>1680.234174375176</v>
       </c>
       <c r="D29" t="n">
-        <v>1221.845010298012</v>
+        <v>1321.968475768425</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>936.1802231701811</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>525.1943183805736</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539437</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.546699278357</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.407367302545</v>
+        <v>2435.796531379709</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031481</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.5323442946291</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5323442946291</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D31" t="n">
-        <v>507.5323442946291</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E31" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V31" t="n">
-        <v>1245.731644373137</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>956.3144743361765</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X31" t="n">
-        <v>728.3249234381592</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.5323442946291</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506.396382525582</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>1137.43386558517</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>779.1681669784198</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136267</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520489</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176919</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W32" t="n">
-        <v>2656.601312826595</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>2283.135554565515</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1892.996222589704</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031481</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.2880032601529</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>825.351820332246</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2351809199102</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3220873375171</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1846.485213562414</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1624.71859813194</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1624.71859813194</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1624.71859813194</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1624.71859813194</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="X34" t="n">
-        <v>1396.729047233923</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y34" t="n">
-        <v>1175.936468090393</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2283.102991989295</v>
+        <v>1252.833343223198</v>
       </c>
       <c r="C35" t="n">
-        <v>1934.208022973022</v>
+        <v>883.8708262827865</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>525.6051276760361</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>525.6051276760361</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218345</v>
@@ -6949,13 +6949,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.58875505237</v>
@@ -6970,19 +6970,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250375</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989295</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y35" t="n">
-        <v>2283.102991989295</v>
+        <v>1639.43318328732</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.0651425065849</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C37" t="n">
-        <v>742.0651425065849</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D37" t="n">
-        <v>625.6709106036544</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E37" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
         <v>163.8377936138381</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484846</v>
+        <v>1643.162937701153</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1354.060070826796</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046023</v>
+        <v>1099.375582620909</v>
       </c>
       <c r="W37" t="n">
-        <v>970.0546934046023</v>
+        <v>1099.375582620909</v>
       </c>
       <c r="X37" t="n">
-        <v>742.0651425065849</v>
+        <v>871.3860317228919</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.0651425065849</v>
+        <v>650.5934525793617</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609172</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V38" t="n">
-        <v>3121.960685029207</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W38" t="n">
-        <v>2769.192029759092</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X38" t="n">
-        <v>2395.726271498012</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y38" t="n">
-        <v>2005.586939522201</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.5608581015648</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C40" t="n">
-        <v>772.5608581015648</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7362,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.425065783662</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W40" t="n">
-        <v>1127.007895746702</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.007895746702</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.2093229318045</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1252.833343223197</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.833343223197</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D41" t="n">
-        <v>1252.833343223197</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7426,37 +7426,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V41" t="n">
-        <v>2755.806928794325</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W41" t="n">
-        <v>2403.038273524211</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X41" t="n">
-        <v>2029.572515263131</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y41" t="n">
-        <v>1639.433183287319</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>457.9680739783734</v>
+        <v>914.1161452244872</v>
       </c>
       <c r="C43" t="n">
-        <v>457.9680739783734</v>
+        <v>914.1161452244872</v>
       </c>
       <c r="D43" t="n">
-        <v>457.9680739783734</v>
+        <v>763.9995058121515</v>
       </c>
       <c r="E43" t="n">
-        <v>310.0549803959803</v>
+        <v>616.0864122297584</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959803</v>
+        <v>469.196464731848</v>
       </c>
       <c r="G43" t="n">
         <v>310.0549803959803</v>
@@ -7566,55 +7566,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1519.162149993595</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U43" t="n">
-        <v>1230.059283119238</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V43" t="n">
-        <v>975.3747949133515</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W43" t="n">
-        <v>685.9576248763908</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X43" t="n">
-        <v>457.9680739783734</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y43" t="n">
-        <v>457.9680739783734</v>
+        <v>914.1161452244872</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1616.654488422265</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C44" t="n">
-        <v>1247.691971481853</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D44" t="n">
-        <v>889.4262728751025</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E44" t="n">
-        <v>503.6380202768583</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F44" t="n">
-        <v>92.65211548725074</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>92.65211548725074</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3286.336453448971</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993392</v>
+        <v>3032.805976722807</v>
       </c>
       <c r="V44" t="n">
-        <v>3119.628073993392</v>
+        <v>3032.805976722807</v>
       </c>
       <c r="W44" t="n">
-        <v>2766.859418723278</v>
+        <v>2680.037321452693</v>
       </c>
       <c r="X44" t="n">
-        <v>2393.393660462198</v>
+        <v>2306.571563191613</v>
       </c>
       <c r="Y44" t="n">
-        <v>2003.254328486386</v>
+        <v>1916.432231215801</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G45" t="n">
         <v>176.0213023927779</v>
@@ -7724,19 +7724,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992583</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.5841306576258</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>584.5841306576258</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>584.5841306576258</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>436.6710370752327</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>289.7810895773223</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>289.7810895773223</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H46" t="n">
-        <v>143.5639027951801</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U46" t="n">
-        <v>1356.675339798491</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V46" t="n">
-        <v>1101.990851592604</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W46" t="n">
-        <v>812.5736815556431</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X46" t="n">
-        <v>584.5841306576258</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.5841306576258</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-3.313741276051002e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>124.4562894637306</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>82.87935969080354</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>389.1960606879579</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>94.58829630063779</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3595915398098</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>106.3881249561073</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>216.5872951747024</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>136.5372091756038</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696523</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>335.5082818697899</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>145.9927856228068</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292592</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.22045764091618</v>
       </c>
       <c r="V22" t="n">
-        <v>87.88357004526421</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.814570777054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>181.1251564493149</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.70292399193566</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>175.2259576965719</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>331.8898480104165</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.1048111009506</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>111.8169598386425</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>53.94492190634969</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>55.94857654025645</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>251.4341101118677</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292592</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>94.35543628911063</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>75.64049592328411</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>94.87516969978147</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>327.7844954205925</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7677841506232</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>147.8785773062514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>19.86687244489701</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>404.8726200366767</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.38518343431114</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>27.19080766274936</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>235.3313350441452</v>
+        <v>66.40041231066442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.5140662653466</v>
+        <v>190.3966965679707</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>319.8778913316435</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>170.9384612922568</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>8.475738766519214</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.266900493662348</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>268.7291653228038</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>165.0412956610208</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>20.0711519104714</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>61.45558211047302</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798322.0388284011</v>
+        <v>798322.038828401</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798322.0388284011</v>
+        <v>798322.0388284012</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798322.0388284011</v>
+        <v>798322.0388284012</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798322.0388284012</v>
+        <v>798322.0388284011</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798322.038828401</v>
+        <v>798322.0388284012</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798322.0388284012</v>
+        <v>798322.0388284011</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798322.0388284012</v>
+        <v>798322.0388284014</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798322.0388284011</v>
+        <v>798322.0388284012</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798322.038828401</v>
+        <v>798322.0388284014</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798322.0388284009</v>
+        <v>798322.0388284014</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651051</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
+        <v>409196.5187651051</v>
+      </c>
+      <c r="J2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="J2" t="n">
-        <v>409196.518765105</v>
-      </c>
       <c r="K2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651051</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.518765105</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651049</v>
@@ -26352,7 +26352,7 @@
         <v>409196.5187651049</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651051</v>
       </c>
       <c r="P2" t="n">
         <v>409196.5187651048</v>
@@ -26371,16 +26371,16 @@
         <v>392510.2442861782</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829229</v>
+        <v>59871.45719829544</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815274</v>
+        <v>219439.6828815243</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487782</v>
+        <v>91259.95686487788</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109761</v>
+        <v>15010.50346109826</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281656</v>
+        <v>57311.38215281577</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>157675.7383646815</v>
+        <v>157675.7383646806</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
@@ -26456,7 +26456,7 @@
         <v>14649.95482218994</v>
       </c>
       <c r="O4" t="n">
-        <v>14649.95482218994</v>
+        <v>14649.95482218989</v>
       </c>
       <c r="P4" t="n">
         <v>14649.95482218994</v>
@@ -26475,10 +26475,10 @@
         <v>85199.0818558723</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103133</v>
+        <v>89860.11994103156</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139333</v>
@@ -26490,28 +26490,28 @@
         <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139333</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139333</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139333</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-434254.205848019</v>
       </c>
       <c r="C6" t="n">
-        <v>-159287.2543123782</v>
+        <v>-159287.254312378</v>
       </c>
       <c r="D6" t="n">
-        <v>185217.7464145649</v>
+        <v>185217.7464145623</v>
       </c>
       <c r="E6" t="n">
-        <v>97324.35120193318</v>
+        <v>100452.9215701912</v>
       </c>
       <c r="F6" t="n">
-        <v>316764.0340834602</v>
+        <v>319892.6044517155</v>
       </c>
       <c r="G6" t="n">
-        <v>316764.0340834607</v>
+        <v>319892.6044517151</v>
       </c>
       <c r="H6" t="n">
-        <v>316764.0340834608</v>
+        <v>319892.6044517159</v>
       </c>
       <c r="I6" t="n">
-        <v>316764.0340834606</v>
+        <v>319892.6044517157</v>
       </c>
       <c r="J6" t="n">
-        <v>267699.089354916</v>
+        <v>270827.6597231709</v>
       </c>
       <c r="K6" t="n">
-        <v>225504.0772185827</v>
+        <v>228632.6475868378</v>
       </c>
       <c r="L6" t="n">
-        <v>301753.5306223631</v>
+        <v>304882.1009906174</v>
       </c>
       <c r="M6" t="n">
-        <v>259452.6519306441</v>
+        <v>262581.2222988998</v>
       </c>
       <c r="N6" t="n">
-        <v>316764.0340834606</v>
+        <v>319892.6044517155</v>
       </c>
       <c r="O6" t="n">
-        <v>316764.0340834606</v>
+        <v>319892.6044517155</v>
       </c>
       <c r="P6" t="n">
-        <v>316764.0340834605</v>
+        <v>319892.6044517154</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621218</v>
+        <v>902.1082727621244</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,13 +26773,13 @@
         <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>542.1149567261639</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463335</v>
+        <v>601.4236775463364</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022931</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26965,17 +26965,17 @@
         <v>305.24072362478</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822443702</v>
+        <v>48.39760822443964</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311765</v>
+        <v>187.6684278311739</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>354.5893695598438</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082016963</v>
+        <v>59.30872082017254</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559596</v>
+        <v>229.9777778559563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082016986</v>
+        <v>59.30872082017243</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559596</v>
+        <v>229.9777778559564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082016963</v>
+        <v>59.30872082017254</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559596</v>
+        <v>229.9777778559563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>293.8395519128309</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>41.42506461587487</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871024</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.164221771633906</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>175.1753238669116</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>147.2427938053155</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784796</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159722</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>96.47529398431129</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>24.63696360625096</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27697,19 +27697,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>72.93943469557789</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185511</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>125.6553122885246</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>23.54332530129552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>134.6953741441954</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>354.4214293020506</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>302.4168112252279</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808925</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.3796986693934</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817389</v>
+        <v>93.49542143817384</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318247</v>
+        <v>32.71530508318229</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320356</v>
+        <v>25.20549727320321</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703701</v>
+        <v>135.64139247037</v>
       </c>
       <c r="T9" t="n">
         <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>48.09852120937182</v>
+        <v>48.0985212093635</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>63.97759260440307</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551747</v>
+        <v>106.5295869551746</v>
       </c>
       <c r="J10" t="n">
-        <v>11.9840109923302</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236547</v>
+        <v>15.28665244236507</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823916</v>
+        <v>104.1486779823914</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159069</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
         <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2302973952356</v>
+        <v>46.32960687512437</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651743</v>
+        <v>3.626565920651754</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487468</v>
+        <v>37.14056823487478</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559265</v>
+        <v>139.8131826559269</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079162</v>
+        <v>307.8002493079171</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291046</v>
+        <v>461.3127847291059</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232505</v>
+        <v>572.2993015232521</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146409</v>
+        <v>636.7932432146428</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366927</v>
+        <v>647.0972236366946</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632118</v>
+        <v>611.0355587632137</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971219</v>
+        <v>521.5047125971234</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637812</v>
+        <v>391.6283205637823</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131403</v>
+        <v>227.8072715131409</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685168</v>
+        <v>82.64037091685192</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765301</v>
+        <v>15.87529231765306</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521394</v>
+        <v>0.2901252736521402</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.940383831978904</v>
+        <v>1.940383831978909</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832257</v>
+        <v>18.74002279832263</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681753</v>
+        <v>66.80707491681771</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449893</v>
+        <v>183.3237198449899</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875759</v>
+        <v>313.3294365875768</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461212</v>
+        <v>421.3100947461224</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553563</v>
+        <v>491.6490086553578</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671799</v>
+        <v>504.6614949671813</v>
       </c>
       <c r="O9" t="n">
-        <v>461.666674269121</v>
+        <v>461.6666742691223</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539365</v>
+        <v>370.5282073539375</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610264</v>
+        <v>247.6882940610271</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907604</v>
+        <v>120.4740066907607</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346777</v>
+        <v>36.04177863346787</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739525</v>
+        <v>7.821108515739548</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1276568310512437</v>
+        <v>0.1276568310512441</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013662</v>
+        <v>1.626752623013667</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461239</v>
+        <v>14.46330968461243</v>
       </c>
       <c r="I10" t="n">
-        <v>48.9208879720836</v>
+        <v>48.92088797208374</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470659</v>
+        <v>115.0114104470662</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737691</v>
+        <v>188.9990774737696</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615039</v>
+        <v>241.8537490615047</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874961</v>
+        <v>255.0008679874969</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017181</v>
+        <v>248.9375173017189</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328766</v>
+        <v>229.9340889328773</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233977</v>
+        <v>196.7483354233983</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870804</v>
+        <v>136.2183491870808</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477792</v>
+        <v>73.14471339477812</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106536</v>
+        <v>28.34986162106544</v>
       </c>
       <c r="T10" t="n">
-        <v>6.9506702983311</v>
+        <v>6.95067029833112</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529076</v>
+        <v>0.08873196125529102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
@@ -32001,31 +32001,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
         <v>19.17787942451121</v>
@@ -32074,43 +32074,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.610358400291</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,19 +32153,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883116</v>
@@ -32180,13 +32180,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H17" t="n">
         <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026439</v>
@@ -32320,31 +32320,31 @@
         <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987462</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462216</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H19" t="n">
         <v>17.4721575931188</v>
@@ -32396,34 +32396,34 @@
         <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33043,10 +33043,10 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905542</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575005</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I41" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812299</v>
+        <v>126.7543447812308</v>
       </c>
       <c r="K8" t="n">
-        <v>241.222933684124</v>
+        <v>241.2229336841253</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532633</v>
+        <v>336.5328865532649</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873682</v>
+        <v>406.4470099873701</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401017</v>
+        <v>417.6841600401037</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415251</v>
+        <v>380.9373473415269</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418523</v>
+        <v>290.2717168418539</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893317</v>
+        <v>169.3226306893328</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900815</v>
+        <v>12.22173369900881</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832265</v>
+        <v>56.48609317832319</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132169</v>
+        <v>175.4879976132178</v>
       </c>
       <c r="L9" t="n">
-        <v>282.755714966247</v>
+        <v>282.7557149662482</v>
       </c>
       <c r="M9" t="n">
-        <v>349.514974733338</v>
+        <v>349.5149747333394</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838465</v>
+        <v>373.319782883848</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246765</v>
+        <v>319.0704298246779</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396062</v>
+        <v>236.5537999396073</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750049</v>
+        <v>107.7065199750056</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323368</v>
+        <v>59.98581930323422</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802657</v>
+        <v>106.9690727802664</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398911</v>
+        <v>116.0750840398918</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364849</v>
+        <v>121.2519728364857</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103383</v>
+        <v>91.47755048103451</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425013</v>
+        <v>59.0203313742507</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859608</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701982</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127247</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302278</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
